--- a/00_重要数据备份/02_快捷方式/09_SVN使用/Google Code使用.xlsx
+++ b/00_重要数据备份/02_快捷方式/09_SVN使用/Google Code使用.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,13 +75,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -126,13 +122,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -459,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
